--- a/32 LLM for CJM/Promt_to_tree.xlsx
+++ b/32 LLM for CJM/Promt_to_tree.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\Data-Practice\32 LLM for CJM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C1D0C9-B58B-4E7A-84A9-55337E05AB1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E215A5-FBD6-47C5-B601-1367018A4F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3080" yWindow="2630" windowWidth="14400" windowHeight="7400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,25 +34,25 @@
     <t>Campaign type</t>
   </si>
   <si>
+    <t>Segment-AB-TouchPoint</t>
+  </si>
+  <si>
     <t xml:space="preserve">Отправляем коммуникацию по сегменту клиентов  
+Используем шаблон Email для банков </t>
+  </si>
+  <si>
+    <t>Segment-TouchPoint</t>
+  </si>
+  <si>
+    <t>Коммуникация по сегменту клиентов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Коммуникация по сегменту клиентов с A\B тестом </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отправляем коммуникацию по сегменту клиентов  мужчины 25-40
 Используем шаблон Email для банков 
 Проводим A\B тест </t>
-  </si>
-  <si>
-    <t>Segment-AB-TouchPoint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Отправляем коммуникацию по сегменту клиентов  
-Используем шаблон Email для банков </t>
-  </si>
-  <si>
-    <t>Segment-TouchPoint</t>
-  </si>
-  <si>
-    <t>Коммуникация по сегменту клиентов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Коммуникация по сегменту клиентов с A\B тестом </t>
   </si>
 </sst>
 </file>
@@ -375,8 +375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -394,46 +394,46 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="66" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -445,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC7A72E-5E3D-40AA-A79B-7CC66551DA24}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
